--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4325.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4325.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jason Jonathan Roy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -491,7 +556,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -499,7 +563,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1435,7 +1499,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1487,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1539,7 +1603,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1903,7 +1967,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1955,7 +2019,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2007,7 +2071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,7 +2123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2111,7 +2175,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2163,7 +2227,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2215,7 +2279,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2267,7 +2331,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2319,7 +2383,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2371,7 +2435,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2423,7 +2487,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2475,7 +2539,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2527,7 +2591,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2579,7 +2643,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2631,7 +2695,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2683,7 +2747,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2735,7 +2799,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2787,7 +2851,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2839,7 +2903,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2891,7 +2955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2943,7 +3007,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2995,7 +3059,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3047,7 +3111,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3099,7 +3163,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3151,7 +3215,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3203,7 +3267,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3255,7 +3319,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3307,7 +3371,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3359,7 +3423,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3411,7 +3475,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3463,7 +3527,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3515,7 +3579,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3567,7 +3631,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3619,7 +3683,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3671,7 +3735,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3723,7 +3787,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3775,7 +3839,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3827,7 +3891,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3879,7 +3943,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3931,7 +3995,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3983,7 +4047,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4035,7 +4099,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4087,7 +4151,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4139,7 +4203,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4191,7 +4255,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4231,7 +4295,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4239,7 +4302,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4291,7 +4354,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4343,7 +4406,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4395,7 +4458,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4447,7 +4510,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4499,7 +4562,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4551,7 +4614,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4591,7 +4654,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -4599,7 +4661,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4651,7 +4713,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4703,7 +4765,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4755,7 +4817,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4807,7 +4869,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4859,7 +4921,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4899,7 +4961,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -4907,7 +4968,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4959,7 +5020,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5011,7 +5072,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5063,7 +5124,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5115,7 +5176,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5167,7 +5228,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5219,7 +5280,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5271,7 +5332,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5323,7 +5384,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5375,7 +5436,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5427,7 +5488,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5479,7 +5540,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5519,7 +5580,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -5527,7 +5587,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5579,7 +5639,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5631,7 +5691,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5683,7 +5743,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5735,7 +5795,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5787,7 +5847,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5839,7 +5899,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5891,7 +5951,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5943,7 +6003,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5983,7 +6043,6 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -5991,7 +6050,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6043,7 +6102,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6095,7 +6154,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6147,7 +6206,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6199,7 +6258,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6251,7 +6310,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6303,7 +6362,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6355,7 +6414,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6407,7 +6466,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6459,7 +6518,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6490,6 +6549,541 @@
       <c r="J117" t="inlineStr">
         <is>
           <t>33</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.59%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.73%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15.83%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>41.70%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.49%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4325.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4325.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F108" t="inlineStr">

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4325.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4325.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,6 +555,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -4295,6 +4295,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4654,6 +4655,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -4961,6 +4963,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -5580,6 +5583,7 @@
           <t>98</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -6043,6 +6047,7 @@
           <t>107</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -6549,541 +6554,6 @@
       <c r="J117" t="inlineStr">
         <is>
           <t>33</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.59%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>40.73%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.35%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>15.83%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>41.70%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.29%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.89%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>40.49%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.69%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
